--- a/biology/Histoire de la zoologie et de la botanique/Édouard_Traviès/Édouard_Traviès.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Édouard_Traviès/Édouard_Traviès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Travi%C3%A8s</t>
+          <t>Édouard_Traviès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Édouard Traviès de Villers, né Édouard Traviès à Doullens le 24 mars 1809, et mort à Paris 5e le 18 novembre 1876[1], est un peintre animalier, illustrateur et lithographe français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Édouard Traviès de Villers, né Édouard Traviès à Doullens le 24 mars 1809, et mort à Paris 5e le 18 novembre 1876, est un peintre animalier, illustrateur et lithographe français.
 Son frère, Charles-Joseph Traviès de Villers, est un caricaturiste connu  sous le nom Traviès.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Travi%C3%A8s</t>
+          <t>Édouard_Traviès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir commencé dans la caricature[réf. nécessaire], Édouard Traviès se spécialise dans la peinture d’oiseaux et d’insectes peints à l’aquarelle. Il expose régulière au Salon entre 1831 et 1866.
 Il réalise de nombreuses lithographies pour La vènerie. Souvenirs de chasse, et une série de douze trophées pour le Musée du chasseur. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89douard_Travi%C3%A8s</t>
+          <t>Édouard_Traviès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Ouvrages illustrés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Alcide d'Orbigny, Galerie ornithologique, ou Collection d'oiseaux d'Europe, décrits par Alcide d'Orbigny, dessinés d'après nature, Paris, Armand Robin, 1836.
 Buffon, Les oiseaux les plus remarquables par leurs formes et leurs couleurs, scènes variées de leurs mœurs et de leurs habitudes, Paris, Londres, 1857.
